--- a/biology/Zoologie/Cyrestis_achates/Cyrestis_achates.xlsx
+++ b/biology/Zoologie/Cyrestis_achates/Cyrestis_achates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrestis achates est une espèce de lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Cyrestinae et au genre Cyrestis.
 </t>
@@ -511,13 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrestis achates a été nommé par Butler en 1865[1].
-Sous-espèces
-Cyrestis achates achates
-Cyrestis achates bougainvillei Ribbe[1].
-Cyrestis whitmei Butler est considéré par certains comme une sous-espèce de Cyrestis achates, Cyrestis achates whitmei
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrestis achates a été nommé par Butler en 1865.
 </t>
         </is>
       </c>
@@ -543,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon blanc à ornementation complexe de fines lignes marron coupant les veines finement soulignées de marron. Les ailes antérieures ont une bordure et l'apex marron, deux bandes basales bleues  et deux ocelles submarginaux cernés de bleu, couleur bleue qui se prolonge par une ligne bleue aux postérieures. La partie anale est orange et la petite queue est bleue.
-Le revers présente la même ornementation.
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrestis achates achates
+Cyrestis achates bougainvillei Ribbe.
+Cyrestis whitmei Butler est considéré par certains comme une sous-espèce de Cyrestis achates, Cyrestis achates whitmei
 </t>
         </is>
       </c>
@@ -575,13 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des lianes, des Apocynaceae.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon blanc à ornementation complexe de fines lignes marron coupant les veines finement soulignées de marron. Les ailes antérieures ont une bordure et l'apex marron, deux bandes basales bleues  et deux ocelles submarginaux cernés de bleu, couleur bleue qui se prolonge par une ligne bleue aux postérieures. La partie anale est orange et la petite queue est bleue.
+Le revers présente la même ornementation.
 </t>
         </is>
       </c>
@@ -607,16 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Nouvelle-Guinée[1].
-Biotope
-Il réside en forêt, dans les lieux où poussent les lianes plantes hôtes de sa chenille.
-Protection
-Pas de statut de protection particulier.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des lianes, des Apocynaceae.
 </t>
         </is>
       </c>
@@ -642,12 +663,121 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Nouvelle-Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyrestis_achates</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_achates</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt, dans les lieux où poussent les lianes plantes hôtes de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyrestis_achates</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_achates</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cyrestis_achates</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrestis_achates</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Philalélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poste de l'Inde a émis un timbre à son effigie en 1981[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poste de l'Inde a émis un timbre à son effigie en 1981.
 </t>
         </is>
       </c>
